--- a/results/mp/logistic/corona/confidence/210/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,45 +46,42 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>war</t>
+    <t>die</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>avoid</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
-    <t>prices</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
@@ -97,124 +94,121 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>great</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>special</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>important</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>stay</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>need</t>
   </si>
   <si>
     <t>grocery</t>
@@ -575,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,10 +577,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -662,19 +656,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -686,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -694,13 +688,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.75</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C4">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D4">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -712,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.925</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -736,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -744,7 +738,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6111111111111112</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C5">
         <v>22</v>
@@ -762,19 +756,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -786,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -794,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5789473684210527</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -812,19 +806,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -836,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -844,13 +838,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4497354497354497</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C7">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -862,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8511749347258486</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>326</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>326</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -886,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4313725490196079</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C8">
         <v>22</v>
@@ -912,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.8679245283018868</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -936,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -944,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.423728813559322</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -962,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.8620689655172413</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="M9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -986,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -994,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4147286821705427</v>
+        <v>0.4534883720930232</v>
       </c>
       <c r="C10">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="D10">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1012,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.8481675392670157</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L10">
-        <v>324</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>325</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1033,10 +1027,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1044,13 +1038,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3636363636363636</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1062,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.8292682926829268</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1086,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1094,13 +1088,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3636363636363636</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1115,16 +1109,16 @@
         <v>35</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.828125</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1136,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,13 +1138,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3221476510067114</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C13">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1162,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.81875</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1186,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1194,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.32</v>
+        <v>0.2953020134228188</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1212,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.8055555555555556</v>
+        <v>0.796875</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1236,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1244,13 +1238,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1547619047619048</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C15">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1262,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.8028169014084507</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L15">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="M15">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1286,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1294,37 +1288,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.08579088471849866</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.7878787878787878</v>
+        <v>0.775</v>
       </c>
       <c r="L16">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="M16">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1336,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1344,37 +1338,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01724137931034483</v>
+        <v>0.02039494982194885</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="E17">
-        <v>0.05</v>
+        <v>0.22</v>
       </c>
       <c r="F17">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>1140</v>
+        <v>3026</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.7857142857142857</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1386,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1394,37 +1388,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01586787564766839</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="C18">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E18">
-        <v>0.28</v>
+        <v>0.51</v>
       </c>
       <c r="F18">
-        <v>0.72</v>
+        <v>0.49</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>3039</v>
+        <v>2088</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.723404255319149</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1436,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1444,87 +1438,63 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01231060606060606</v>
+        <v>0.007606973058637084</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E19">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
       <c r="F19">
-        <v>0.46</v>
+        <v>0.34</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>2086</v>
+        <v>3131</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>0.75</v>
+      </c>
+      <c r="L19">
+        <v>21</v>
+      </c>
+      <c r="M19">
+        <v>21</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K19">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="L19">
-        <v>26</v>
-      </c>
-      <c r="M19">
-        <v>26</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.009545020680878142</v>
-      </c>
-      <c r="C20">
-        <v>30</v>
-      </c>
-      <c r="D20">
-        <v>88</v>
-      </c>
-      <c r="E20">
-        <v>0.66</v>
-      </c>
-      <c r="F20">
-        <v>0.34</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>3113</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="K20">
-        <v>0.7209302325581395</v>
+        <v>0.74</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1536,21 +1506,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L21">
         <v>45</v>
       </c>
-      <c r="K21">
-        <v>0.72</v>
-      </c>
-      <c r="L21">
-        <v>36</v>
-      </c>
       <c r="M21">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1562,21 +1532,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.7083333333333334</v>
+        <v>0.7</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1588,21 +1558,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>0.7037037037037037</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1614,21 +1584,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>0.6825396825396826</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L24">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1640,21 +1610,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>0.6571428571428571</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>216</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>216</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1666,21 +1636,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>0.6323529411764706</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L26">
-        <v>215</v>
+        <v>58</v>
       </c>
       <c r="M26">
-        <v>215</v>
+        <v>58</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1692,73 +1662,73 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>125</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>0.625</v>
+        <v>0.6156462585034014</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="M27">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K28">
-        <v>0.6245733788395904</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L28">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="M28">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="N28">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>110</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>0.602510460251046</v>
+        <v>0.606694560669456</v>
       </c>
       <c r="L29">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M29">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1770,21 +1740,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>0.5957446808510638</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L30">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1796,21 +1766,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>0.5730337078651685</v>
+        <v>0.6</v>
       </c>
       <c r="L31">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1822,21 +1792,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K32">
-        <v>0.5714285714285714</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1848,21 +1818,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33">
-        <v>0.5692307692307692</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1874,21 +1844,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K34">
-        <v>0.5294117647058824</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1900,21 +1870,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K35">
-        <v>0.4888888888888889</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1926,21 +1896,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K36">
-        <v>0.4523809523809524</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1952,15 +1922,15 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K37">
-        <v>0.3835616438356164</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L37">
         <v>28</v>
@@ -1978,21 +1948,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K38">
-        <v>0.3728813559322034</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2004,21 +1974,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K39">
-        <v>0.3717948717948718</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="L39">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2035,42 +2005,42 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K40">
-        <v>0.1944444444444444</v>
+        <v>0.296875</v>
       </c>
       <c r="L40">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N40">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K41">
-        <v>0.1532258064516129</v>
+        <v>0.0726643598615917</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M41">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2082,21 +2052,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>105</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K42">
-        <v>0.06168831168831169</v>
+        <v>0.02552719200887902</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2108,111 +2078,59 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>289</v>
+        <v>878</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="K43">
-        <v>0.02555555555555556</v>
+        <v>0.01447906830343091</v>
       </c>
       <c r="L43">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M43">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="N43">
-        <v>0.96</v>
+        <v>0.66</v>
       </c>
       <c r="O43">
-        <v>0.04000000000000004</v>
+        <v>0.34</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>877</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K44">
-        <v>0.01829076001261432</v>
+        <v>0.01323251417769376</v>
       </c>
       <c r="L44">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="M44">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="N44">
-        <v>0.66</v>
+        <v>0.51</v>
       </c>
       <c r="O44">
-        <v>0.34</v>
+        <v>0.49</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>3113</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
-      <c r="J45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K45">
-        <v>0.01464336324988191</v>
-      </c>
-      <c r="L45">
-        <v>31</v>
-      </c>
-      <c r="M45">
-        <v>57</v>
-      </c>
-      <c r="N45">
-        <v>0.54</v>
-      </c>
-      <c r="O45">
-        <v>0.46</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
-      <c r="J46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K46">
-        <v>0.006213211249182472</v>
-      </c>
-      <c r="L46">
-        <v>19</v>
-      </c>
-      <c r="M46">
-        <v>68</v>
-      </c>
-      <c r="N46">
-        <v>0.28</v>
-      </c>
-      <c r="O46">
-        <v>0.72</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>3039</v>
+        <v>2088</v>
       </c>
     </row>
   </sheetData>
